--- a/Voprosy_anketirovania_vsem.xlsx
+++ b/Voprosy_anketirovania_vsem.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9BBC0C-6641-4A6F-8166-64A038120992}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6120"/>
   </bookViews>
   <sheets>
     <sheet name="Часть 1" sheetId="1" r:id="rId1"/>
     <sheet name="Часть 2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="49">
   <si>
     <t>Персонал</t>
   </si>
@@ -165,12 +164,15 @@
   </si>
   <si>
     <t>Количество смен на предприятии (имеется ввиду расчет для одних суток, т.е. если за сутки сменилась 1 бригада (например, первая работала днем, а вторая ночью), то количество смен = 2)</t>
+  </si>
+  <si>
+    <t>input</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
   </numFmts>
@@ -424,7 +426,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -498,45 +500,126 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -575,81 +658,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -931,45 +939,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="18.54296875" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" customWidth="1"/>
-    <col min="5" max="5" width="44.54296875" customWidth="1"/>
-    <col min="6" max="6" width="23.54296875" customWidth="1"/>
-    <col min="7" max="7" width="22.453125" customWidth="1"/>
-    <col min="8" max="8" width="17.26953125" customWidth="1"/>
-    <col min="9" max="9" width="30.54296875" customWidth="1"/>
-    <col min="10" max="10" width="12.26953125" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="44.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="30.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="12" width="29.7265625" customWidth="1"/>
-    <col min="13" max="13" width="11.26953125" customWidth="1"/>
+    <col min="12" max="12" width="29.7109375" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" customWidth="1"/>
     <col min="14" max="14" width="20" customWidth="1"/>
-    <col min="15" max="15" width="34.54296875" customWidth="1"/>
-    <col min="16" max="16" width="10.26953125" customWidth="1"/>
+    <col min="15" max="15" width="34.5703125" customWidth="1"/>
+    <col min="16" max="16" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="10"/>
       <c r="C2" s="11"/>
     </row>
-    <row r="4" spans="2:16" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="39" t="s">
+    <row r="4" spans="2:16" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
       <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
@@ -982,687 +990,847 @@
       <c r="H4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="39"/>
+      <c r="J4" s="37"/>
       <c r="K4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="39" t="s">
+      <c r="L4" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="39"/>
+      <c r="M4" s="37"/>
       <c r="N4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="39" t="s">
+      <c r="O4" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="P4" s="39"/>
-    </row>
-    <row r="5" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="43" t="s">
+      <c r="P4" s="37"/>
+    </row>
+    <row r="5" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
+      <c r="F5" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>48</v>
+      </c>
       <c r="I5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="71"/>
-      <c r="K5" s="68"/>
+      <c r="J5" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="38" t="s">
+        <v>48</v>
+      </c>
       <c r="L5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="76"/>
+      <c r="M5" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" s="45" t="s">
+        <v>48</v>
+      </c>
       <c r="O5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="P5" s="75"/>
-    </row>
-    <row r="6" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="43"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
+      <c r="P5" s="34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="44"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
       <c r="I6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="72"/>
-      <c r="K6" s="69"/>
+      <c r="J6" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="39"/>
       <c r="L6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="77"/>
-      <c r="N6" s="78"/>
+      <c r="M6" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="N6" s="46"/>
       <c r="O6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P6" s="77"/>
-    </row>
-    <row r="7" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="43"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
+      <c r="P6" s="35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="44"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
       <c r="I7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="72"/>
-      <c r="K7" s="69"/>
+      <c r="J7" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="39"/>
       <c r="L7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="77"/>
-      <c r="N7" s="78"/>
-      <c r="O7" s="32" t="s">
+      <c r="M7" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="N7" s="46"/>
+      <c r="O7" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="P7" s="79"/>
-    </row>
-    <row r="8" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="43"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="37" t="s">
+      <c r="P7" s="50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="44"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="73"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="34" t="s">
+      <c r="J8" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="39"/>
+      <c r="L8" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="79"/>
-      <c r="N8" s="78"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="79"/>
-    </row>
-    <row r="9" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="43"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="80"/>
-      <c r="N9" s="81"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="80"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B10" s="43"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39" t="s">
+      <c r="M8" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="N8" s="46"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="50"/>
+    </row>
+    <row r="9" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="44"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="51"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="44"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
+      <c r="F10" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="38" t="s">
+        <v>48</v>
+      </c>
       <c r="I10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="71"/>
-      <c r="K10" s="68"/>
+      <c r="J10" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="38" t="s">
+        <v>48</v>
+      </c>
       <c r="L10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="75"/>
-      <c r="N10" s="76"/>
+      <c r="M10" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" s="45" t="s">
+        <v>48</v>
+      </c>
       <c r="O10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="P10" s="75"/>
-    </row>
-    <row r="11" spans="2:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B11" s="43"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
+      <c r="P10" s="34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="44"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
       <c r="I11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="72"/>
-      <c r="K11" s="69"/>
+      <c r="J11" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="39"/>
       <c r="L11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="M11" s="77"/>
-      <c r="N11" s="78"/>
+      <c r="M11" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="N11" s="46"/>
       <c r="O11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P11" s="77"/>
-    </row>
-    <row r="12" spans="2:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="43"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
+      <c r="P11" s="35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="44"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
       <c r="I12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="72"/>
-      <c r="K12" s="69"/>
+      <c r="J12" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" s="39"/>
       <c r="L12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="M12" s="77"/>
-      <c r="N12" s="78"/>
-      <c r="O12" s="32" t="s">
+      <c r="M12" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="N12" s="46"/>
+      <c r="O12" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="P12" s="79"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B13" s="43"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="37" t="s">
+      <c r="P12" s="50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="44"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="73"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="34" t="s">
+      <c r="J13" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="39"/>
+      <c r="L13" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="M13" s="79"/>
-      <c r="N13" s="78"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="79"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B14" s="43"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="80"/>
-      <c r="N14" s="81"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="80"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B15" s="43"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39" t="s">
+      <c r="M13" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="N13" s="46"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="50"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="44"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="51"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="44"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="40" t="s">
+      <c r="E15" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
+      <c r="F15" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="38" t="s">
+        <v>48</v>
+      </c>
       <c r="I15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="71"/>
-      <c r="K15" s="68"/>
+      <c r="J15" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15" s="38" t="s">
+        <v>48</v>
+      </c>
       <c r="L15" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M15" s="75"/>
-      <c r="N15" s="76"/>
+      <c r="M15" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="N15" s="45" t="s">
+        <v>48</v>
+      </c>
       <c r="O15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="P15" s="75"/>
-    </row>
-    <row r="16" spans="2:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="43"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
+      <c r="P15" s="34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="44"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
       <c r="I16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="72"/>
-      <c r="K16" s="69"/>
+      <c r="J16" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="K16" s="39"/>
       <c r="L16" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="M16" s="77"/>
-      <c r="N16" s="78"/>
+      <c r="M16" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="N16" s="46"/>
       <c r="O16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P16" s="77"/>
-    </row>
-    <row r="17" spans="2:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B17" s="43"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
+      <c r="P16" s="35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="44"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
       <c r="I17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="72"/>
-      <c r="K17" s="69"/>
+      <c r="J17" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="K17" s="39"/>
       <c r="L17" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="M17" s="77"/>
-      <c r="N17" s="78"/>
-      <c r="O17" s="32" t="s">
+      <c r="M17" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="N17" s="46"/>
+      <c r="O17" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="P17" s="79"/>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B18" s="43"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="37" t="s">
+      <c r="P17" s="50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="44"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="73"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="34" t="s">
+      <c r="J18" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="K18" s="39"/>
+      <c r="L18" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="M18" s="79"/>
-      <c r="N18" s="78"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="79"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B19" s="43"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="80"/>
-      <c r="N19" s="81"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="80"/>
-    </row>
-    <row r="20" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="43"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39" t="s">
+      <c r="M18" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="N18" s="46"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="50"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="44"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="51"/>
+    </row>
+    <row r="20" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="44"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="40" t="s">
+      <c r="E20" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
+      <c r="F20" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="38" t="s">
+        <v>48</v>
+      </c>
       <c r="I20" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="71"/>
-      <c r="K20" s="68"/>
+      <c r="J20" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="K20" s="38" t="s">
+        <v>48</v>
+      </c>
       <c r="L20" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M20" s="75"/>
-      <c r="N20" s="76"/>
+      <c r="M20" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="N20" s="45" t="s">
+        <v>48</v>
+      </c>
       <c r="O20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="P20" s="75"/>
-    </row>
-    <row r="21" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="43"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
+      <c r="P20" s="34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="44"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
       <c r="I21" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J21" s="72"/>
-      <c r="K21" s="69"/>
+      <c r="J21" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="K21" s="39"/>
       <c r="L21" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="M21" s="77"/>
-      <c r="N21" s="78"/>
+      <c r="M21" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="N21" s="46"/>
       <c r="O21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P21" s="77"/>
-    </row>
-    <row r="22" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="43"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
+      <c r="P21" s="35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="44"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
       <c r="I22" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="72"/>
-      <c r="K22" s="69"/>
+      <c r="J22" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="K22" s="39"/>
       <c r="L22" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="M22" s="77"/>
-      <c r="N22" s="78"/>
-      <c r="O22" s="32" t="s">
+      <c r="M22" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="N22" s="46"/>
+      <c r="O22" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="P22" s="79"/>
-    </row>
-    <row r="23" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="43"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="37" t="s">
+      <c r="P22" s="50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="44"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="J23" s="73"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="34" t="s">
+      <c r="J23" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="K23" s="39"/>
+      <c r="L23" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="M23" s="79"/>
-      <c r="N23" s="78"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="79"/>
-    </row>
-    <row r="24" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="43"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="74"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="80"/>
-      <c r="N24" s="81"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="80"/>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B25" s="43"/>
-      <c r="C25" s="39" t="s">
+      <c r="M23" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="N23" s="46"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="50"/>
+    </row>
+    <row r="24" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="44"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="51"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="44"/>
+      <c r="C25" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="39"/>
-      <c r="E25" s="40" t="s">
+      <c r="D25" s="37"/>
+      <c r="E25" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="68"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68"/>
+      <c r="F25" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="H25" s="38" t="s">
+        <v>48</v>
+      </c>
       <c r="I25" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J25" s="71"/>
-      <c r="K25" s="68"/>
+      <c r="J25" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="K25" s="38" t="s">
+        <v>48</v>
+      </c>
       <c r="L25" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M25" s="75"/>
-      <c r="N25" s="76"/>
+      <c r="M25" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="N25" s="45" t="s">
+        <v>48</v>
+      </c>
       <c r="O25" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="P25" s="75"/>
-    </row>
-    <row r="26" spans="2:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B26" s="43"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
+      <c r="P25" s="34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="44"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
       <c r="I26" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J26" s="72"/>
-      <c r="K26" s="69"/>
+      <c r="J26" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="K26" s="39"/>
       <c r="L26" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="M26" s="77"/>
-      <c r="N26" s="78"/>
+      <c r="M26" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="N26" s="46"/>
       <c r="O26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P26" s="77"/>
-    </row>
-    <row r="27" spans="2:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B27" s="43"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
+      <c r="P26" s="35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="44"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
       <c r="I27" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J27" s="72"/>
-      <c r="K27" s="69"/>
+      <c r="J27" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="K27" s="39"/>
       <c r="L27" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="M27" s="77"/>
-      <c r="N27" s="78"/>
-      <c r="O27" s="32" t="s">
+      <c r="M27" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="N27" s="46"/>
+      <c r="O27" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="P27" s="79"/>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B28" s="43"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="37" t="s">
+      <c r="P27" s="50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B28" s="44"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="J28" s="73"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="34" t="s">
+      <c r="J28" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="K28" s="39"/>
+      <c r="L28" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="M28" s="79"/>
-      <c r="N28" s="78"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="79"/>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B29" s="43"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="74"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="80"/>
-      <c r="N29" s="81"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="80"/>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B31" s="31" t="s">
+      <c r="M28" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="N28" s="46"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="50"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="44"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="51"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B31" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
       <c r="F31" s="12">
         <f>SUM(F5:F29)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
     </row>
-    <row r="36" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
       <c r="D50" s="3"/>
@@ -1670,34 +1838,34 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="C25:D29"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="D10:D14"/>
-    <mergeCell ref="D15:D19"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="F25:F29"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="E10:E14"/>
-    <mergeCell ref="E15:E19"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F5:F9"/>
-    <mergeCell ref="F10:F14"/>
-    <mergeCell ref="F15:F19"/>
-    <mergeCell ref="F20:F24"/>
-    <mergeCell ref="C5:C24"/>
-    <mergeCell ref="B5:B29"/>
-    <mergeCell ref="H5:H9"/>
-    <mergeCell ref="H10:H14"/>
-    <mergeCell ref="H15:H19"/>
-    <mergeCell ref="H20:H24"/>
-    <mergeCell ref="H25:H29"/>
-    <mergeCell ref="G5:G9"/>
-    <mergeCell ref="G10:G14"/>
-    <mergeCell ref="G15:G19"/>
-    <mergeCell ref="G20:G24"/>
-    <mergeCell ref="G25:G29"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="O17:O19"/>
+    <mergeCell ref="P17:P19"/>
+    <mergeCell ref="O22:O24"/>
+    <mergeCell ref="P22:P24"/>
+    <mergeCell ref="O27:O29"/>
+    <mergeCell ref="P27:P29"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="K15:K19"/>
+    <mergeCell ref="K20:K24"/>
+    <mergeCell ref="K25:K29"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="N10:N14"/>
+    <mergeCell ref="N15:N19"/>
+    <mergeCell ref="N20:N24"/>
+    <mergeCell ref="N25:N29"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
     <mergeCell ref="N5:N9"/>
     <mergeCell ref="O7:O9"/>
     <mergeCell ref="P7:P9"/>
@@ -1714,76 +1882,77 @@
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="M8:M9"/>
     <mergeCell ref="K5:K9"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="N10:N14"/>
-    <mergeCell ref="N15:N19"/>
-    <mergeCell ref="N20:N24"/>
-    <mergeCell ref="N25:N29"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="O17:O19"/>
-    <mergeCell ref="P17:P19"/>
-    <mergeCell ref="O22:O24"/>
-    <mergeCell ref="P22:P24"/>
-    <mergeCell ref="O27:O29"/>
-    <mergeCell ref="P27:P29"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="K15:K19"/>
-    <mergeCell ref="K20:K24"/>
-    <mergeCell ref="K25:K29"/>
-    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="G5:G9"/>
+    <mergeCell ref="G10:G14"/>
+    <mergeCell ref="G15:G19"/>
+    <mergeCell ref="G20:G24"/>
+    <mergeCell ref="G25:G29"/>
+    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="H10:H14"/>
+    <mergeCell ref="H15:H19"/>
+    <mergeCell ref="H20:H24"/>
+    <mergeCell ref="H25:H29"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="F10:F14"/>
+    <mergeCell ref="F15:F19"/>
+    <mergeCell ref="F20:F24"/>
+    <mergeCell ref="C5:C24"/>
+    <mergeCell ref="B5:B29"/>
+    <mergeCell ref="F25:F29"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="E10:E14"/>
+    <mergeCell ref="E15:E19"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="C25:D29"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="D10:D14"/>
+    <mergeCell ref="D15:D19"/>
+    <mergeCell ref="D20:D24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42B8CD73-E71F-4495-A1CA-8F5220284EA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.1796875" customWidth="1"/>
-    <col min="2" max="2" width="21.54296875" customWidth="1"/>
-    <col min="3" max="3" width="25.81640625" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13"/>
       <c r="B1" s="13"/>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
     </row>
-    <row r="2" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="61" t="s">
+    <row r="2" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-    </row>
-    <row r="3" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="62" t="s">
+      <c r="B2" s="63"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+    </row>
+    <row r="3" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="63"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="16" t="s">
         <v>36</v>
       </c>
@@ -1794,16 +1963,16 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="64"/>
-      <c r="B4" s="65"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
       <c r="C4" s="23"/>
       <c r="D4" s="24"/>
       <c r="E4" s="25"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="64"/>
-      <c r="B5" s="65"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="66"/>
+      <c r="B5" s="67"/>
       <c r="C5" s="30" t="s">
         <v>44</v>
       </c>
@@ -1814,9 +1983,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="64"/>
-      <c r="B6" s="65"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="66"/>
+      <c r="B6" s="67"/>
       <c r="C6" s="21">
         <v>5</v>
       </c>
@@ -1827,198 +1996,192 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="64"/>
-      <c r="B7" s="65"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="66"/>
+      <c r="B7" s="67"/>
       <c r="C7" s="26"/>
       <c r="D7" s="24"/>
       <c r="E7" s="25"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="64"/>
-      <c r="B8" s="65"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="66"/>
+      <c r="B8" s="67"/>
       <c r="C8" s="26"/>
       <c r="D8" s="24"/>
       <c r="E8" s="25"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="64"/>
-      <c r="B9" s="65"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="66"/>
+      <c r="B9" s="67"/>
       <c r="C9" s="26"/>
       <c r="D9" s="24"/>
       <c r="E9" s="25"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="64"/>
-      <c r="B10" s="65"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="66"/>
+      <c r="B10" s="67"/>
       <c r="C10" s="26"/>
       <c r="D10" s="24"/>
       <c r="E10" s="25"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="64"/>
-      <c r="B11" s="65"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="66"/>
+      <c r="B11" s="67"/>
       <c r="C11" s="26"/>
       <c r="D11" s="24"/>
       <c r="E11" s="25"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="64"/>
-      <c r="B12" s="65"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="66"/>
+      <c r="B12" s="67"/>
       <c r="C12" s="26"/>
       <c r="D12" s="24"/>
       <c r="E12" s="25"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="64"/>
-      <c r="B13" s="65"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="66"/>
+      <c r="B13" s="67"/>
       <c r="C13" s="26"/>
       <c r="D13" s="24"/>
       <c r="E13" s="25"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="64"/>
-      <c r="B14" s="65"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="66"/>
+      <c r="B14" s="67"/>
       <c r="C14" s="26"/>
       <c r="D14" s="24"/>
       <c r="E14" s="25"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="64"/>
-      <c r="B15" s="65"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="66"/>
+      <c r="B15" s="67"/>
       <c r="C15" s="26"/>
       <c r="D15" s="24"/>
       <c r="E15" s="25"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="64"/>
-      <c r="B16" s="65"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="66"/>
+      <c r="B16" s="67"/>
       <c r="C16" s="26"/>
       <c r="D16" s="24"/>
       <c r="E16" s="25"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="66"/>
-      <c r="B17" s="67"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="68"/>
+      <c r="B17" s="69"/>
       <c r="C17" s="27"/>
       <c r="D17" s="28"/>
       <c r="E17" s="29"/>
     </row>
-    <row r="18" spans="1:5" ht="81" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="48" t="s">
+    <row r="18" spans="1:5" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="52"/>
-    </row>
-    <row r="19" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="56" t="s">
+      <c r="B18" s="76"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="79"/>
+    </row>
+    <row r="19" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="56"/>
-      <c r="C19" s="48" t="s">
+      <c r="B19" s="83"/>
+      <c r="C19" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="49"/>
+      <c r="D19" s="76"/>
       <c r="E19" s="17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="56"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="58"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="83"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="60"/>
       <c r="E20" s="18"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="56"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="58"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="83"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
       <c r="E21" s="18"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="56"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="58"/>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="83"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="60"/>
       <c r="E22" s="18"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="56"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="58"/>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="83"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="60"/>
       <c r="E23" s="18"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="56"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="58"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="83"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="60"/>
       <c r="E24" s="18"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="56"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="58"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="83"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="60"/>
       <c r="E25" s="18"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="56"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="60"/>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="83"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="62"/>
       <c r="E26" s="22"/>
     </row>
-    <row r="27" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="48" t="s">
+    <row r="27" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="49"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="55"/>
-    </row>
-    <row r="28" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="48" t="s">
+      <c r="B27" s="76"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="82"/>
+    </row>
+    <row r="28" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="49"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="55"/>
-    </row>
-    <row r="29" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="48" t="s">
+      <c r="B28" s="76"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="82"/>
+    </row>
+    <row r="29" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="49"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="52"/>
-    </row>
-    <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="44" t="s">
+      <c r="B29" s="76"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="79"/>
+    </row>
+    <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="45"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="47"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B17"/>
-    <mergeCell ref="C2:E2"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="A18:B18"/>
@@ -2035,6 +2198,12 @@
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B17"/>
+    <mergeCell ref="C2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Voprosy_anketirovania_vsem.xlsx
+++ b/Voprosy_anketirovania_vsem.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="48">
   <si>
     <t>Персонал</t>
   </si>
@@ -119,9 +119,6 @@
   </si>
   <si>
     <t>Количество сотрудников категории, чел</t>
-  </si>
-  <si>
-    <t>Общее количество сотрудников на предприятии, чел</t>
   </si>
   <si>
     <t>Количество работников-многостаночников (т.е. задействованных в двух и более этапах производства), чел</t>
@@ -519,7 +516,25 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -530,6 +545,33 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -539,50 +581,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -619,45 +655,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -942,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,11 +970,11 @@
       <c r="C2" s="11"/>
     </row>
     <row r="4" spans="2:16" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
       <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
@@ -990,755 +987,750 @@
       <c r="H4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="37" t="s">
+      <c r="I4" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="37"/>
+      <c r="J4" s="54"/>
       <c r="K4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="37" t="s">
+      <c r="L4" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="37"/>
+      <c r="M4" s="54"/>
       <c r="N4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="37" t="s">
+      <c r="O4" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="P4" s="37"/>
+      <c r="P4" s="54"/>
     </row>
     <row r="5" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>48</v>
+      <c r="F5" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="44" t="s">
+        <v>47</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>14</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="K5" s="38" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="K5" s="44" t="s">
+        <v>47</v>
       </c>
       <c r="L5" s="8" t="s">
         <v>20</v>
       </c>
       <c r="M5" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="N5" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="N5" s="49" t="s">
+        <v>47</v>
       </c>
       <c r="O5" s="5" t="s">
         <v>26</v>
       </c>
       <c r="P5" s="34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="44"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
       <c r="I6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="J6" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6" s="39"/>
+        <v>47</v>
+      </c>
+      <c r="K6" s="45"/>
       <c r="L6" s="9" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="N6" s="46"/>
+        <v>47</v>
+      </c>
+      <c r="N6" s="50"/>
       <c r="O6" s="3" t="s">
         <v>27</v>
       </c>
       <c r="P6" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="44"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
       <c r="I7" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J7" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" s="39"/>
+        <v>47</v>
+      </c>
+      <c r="K7" s="45"/>
       <c r="L7" s="9" t="s">
         <v>22</v>
       </c>
       <c r="M7" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="N7" s="46"/>
-      <c r="O7" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="N7" s="50"/>
+      <c r="O7" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="P7" s="50" t="s">
-        <v>48</v>
+      <c r="P7" s="40" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="44"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="52" t="s">
+      <c r="B8" s="55"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="K8" s="39"/>
-      <c r="L8" s="56" t="s">
+      <c r="J8" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="45"/>
+      <c r="L8" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="N8" s="46"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="50"/>
+      <c r="M8" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="N8" s="50"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="40"/>
     </row>
     <row r="9" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="44"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="51"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="41"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="44"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37" t="s">
+      <c r="B10" s="55"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="38" t="s">
-        <v>48</v>
+      <c r="F10" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="44" t="s">
+        <v>47</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>14</v>
       </c>
       <c r="J10" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10" s="38" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="K10" s="44" t="s">
+        <v>47</v>
       </c>
       <c r="L10" s="8" t="s">
         <v>20</v>
       </c>
       <c r="M10" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="N10" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="N10" s="49" t="s">
+        <v>47</v>
       </c>
       <c r="O10" s="5" t="s">
         <v>26</v>
       </c>
       <c r="P10" s="34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="44"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
       <c r="I11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="J11" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="K11" s="39"/>
+        <v>47</v>
+      </c>
+      <c r="K11" s="45"/>
       <c r="L11" s="9" t="s">
         <v>21</v>
       </c>
       <c r="M11" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="N11" s="46"/>
+        <v>47</v>
+      </c>
+      <c r="N11" s="50"/>
       <c r="O11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="P11" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="44"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
       <c r="I12" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J12" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="K12" s="39"/>
+        <v>47</v>
+      </c>
+      <c r="K12" s="45"/>
       <c r="L12" s="9" t="s">
         <v>22</v>
       </c>
       <c r="M12" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="N12" s="46"/>
-      <c r="O12" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="N12" s="50"/>
+      <c r="O12" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="P12" s="50" t="s">
-        <v>48</v>
+      <c r="P12" s="40" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="44"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="52" t="s">
+      <c r="B13" s="55"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="K13" s="39"/>
-      <c r="L13" s="56" t="s">
+      <c r="J13" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" s="45"/>
+      <c r="L13" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="M13" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="N13" s="46"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="50"/>
+      <c r="M13" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="N13" s="50"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="40"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="44"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="51"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="41"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="44"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37" t="s">
+      <c r="B15" s="55"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="38" t="s">
-        <v>48</v>
+      <c r="F15" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="44" t="s">
+        <v>47</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>14</v>
       </c>
       <c r="J15" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="K15" s="38" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="K15" s="44" t="s">
+        <v>47</v>
       </c>
       <c r="L15" s="8" t="s">
         <v>20</v>
       </c>
       <c r="M15" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="N15" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="N15" s="49" t="s">
+        <v>47</v>
       </c>
       <c r="O15" s="5" t="s">
         <v>26</v>
       </c>
       <c r="P15" s="34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="44"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
       <c r="I16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="J16" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="K16" s="39"/>
+        <v>47</v>
+      </c>
+      <c r="K16" s="45"/>
       <c r="L16" s="9" t="s">
         <v>21</v>
       </c>
       <c r="M16" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="N16" s="46"/>
+        <v>47</v>
+      </c>
+      <c r="N16" s="50"/>
       <c r="O16" s="3" t="s">
         <v>27</v>
       </c>
       <c r="P16" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="44"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
       <c r="I17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J17" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="K17" s="39"/>
+        <v>47</v>
+      </c>
+      <c r="K17" s="45"/>
       <c r="L17" s="9" t="s">
         <v>22</v>
       </c>
       <c r="M17" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="N17" s="46"/>
-      <c r="O17" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="N17" s="50"/>
+      <c r="O17" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="P17" s="50" t="s">
-        <v>48</v>
+      <c r="P17" s="40" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="44"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="52" t="s">
+      <c r="B18" s="55"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="K18" s="39"/>
-      <c r="L18" s="56" t="s">
+      <c r="J18" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18" s="45"/>
+      <c r="L18" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="M18" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="N18" s="46"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="50"/>
+      <c r="M18" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="N18" s="50"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="40"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="44"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="51"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="41"/>
     </row>
     <row r="20" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="44"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37" t="s">
+      <c r="B20" s="55"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="41" t="s">
+      <c r="E20" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="H20" s="38" t="s">
-        <v>48</v>
+      <c r="F20" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="44" t="s">
+        <v>47</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>14</v>
       </c>
       <c r="J20" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="K20" s="38" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="K20" s="44" t="s">
+        <v>47</v>
       </c>
       <c r="L20" s="8" t="s">
         <v>20</v>
       </c>
       <c r="M20" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="N20" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="N20" s="49" t="s">
+        <v>47</v>
       </c>
       <c r="O20" s="5" t="s">
         <v>26</v>
       </c>
       <c r="P20" s="34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="44"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
       <c r="I21" s="7" t="s">
         <v>15</v>
       </c>
       <c r="J21" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="K21" s="39"/>
+        <v>47</v>
+      </c>
+      <c r="K21" s="45"/>
       <c r="L21" s="9" t="s">
         <v>21</v>
       </c>
       <c r="M21" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="N21" s="46"/>
+        <v>47</v>
+      </c>
+      <c r="N21" s="50"/>
       <c r="O21" s="3" t="s">
         <v>27</v>
       </c>
       <c r="P21" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="44"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
       <c r="I22" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J22" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="K22" s="39"/>
+        <v>47</v>
+      </c>
+      <c r="K22" s="45"/>
       <c r="L22" s="9" t="s">
         <v>22</v>
       </c>
       <c r="M22" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="N22" s="46"/>
-      <c r="O22" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="N22" s="50"/>
+      <c r="O22" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="P22" s="50" t="s">
-        <v>48</v>
+      <c r="P22" s="40" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="44"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="52" t="s">
+      <c r="B23" s="55"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="J23" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="K23" s="39"/>
-      <c r="L23" s="56" t="s">
+      <c r="J23" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="K23" s="45"/>
+      <c r="L23" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="M23" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="N23" s="46"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="50"/>
+      <c r="M23" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="N23" s="50"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="40"/>
     </row>
     <row r="24" spans="2:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="44"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="51"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="41"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="44"/>
-      <c r="C25" s="37" t="s">
+      <c r="B25" s="55"/>
+      <c r="C25" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="37"/>
-      <c r="E25" s="41" t="s">
+      <c r="D25" s="54"/>
+      <c r="E25" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="G25" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="H25" s="38" t="s">
-        <v>48</v>
+      <c r="F25" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="H25" s="44" t="s">
+        <v>47</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>14</v>
       </c>
       <c r="J25" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="K25" s="38" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="K25" s="44" t="s">
+        <v>47</v>
       </c>
       <c r="L25" s="8" t="s">
         <v>20</v>
       </c>
       <c r="M25" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="N25" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="N25" s="49" t="s">
+        <v>47</v>
       </c>
       <c r="O25" s="5" t="s">
         <v>26</v>
       </c>
       <c r="P25" s="34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="44"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
       <c r="I26" s="7" t="s">
         <v>15</v>
       </c>
       <c r="J26" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="K26" s="39"/>
+        <v>47</v>
+      </c>
+      <c r="K26" s="45"/>
       <c r="L26" s="9" t="s">
         <v>21</v>
       </c>
       <c r="M26" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="N26" s="46"/>
+        <v>47</v>
+      </c>
+      <c r="N26" s="50"/>
       <c r="O26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="P26" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="44"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
       <c r="I27" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J27" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="K27" s="39"/>
+        <v>47</v>
+      </c>
+      <c r="K27" s="45"/>
       <c r="L27" s="9" t="s">
         <v>22</v>
       </c>
       <c r="M27" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="N27" s="46"/>
-      <c r="O27" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="N27" s="50"/>
+      <c r="O27" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="P27" s="50" t="s">
-        <v>48</v>
+      <c r="P27" s="40" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="44"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="52" t="s">
+      <c r="B28" s="55"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="J28" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="K28" s="39"/>
-      <c r="L28" s="56" t="s">
+      <c r="J28" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="K28" s="45"/>
+      <c r="L28" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="M28" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="N28" s="46"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="50"/>
+      <c r="M28" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="N28" s="50"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="40"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="44"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="49"/>
-      <c r="P29" s="51"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="41"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B31" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="12">
-        <f>SUM(F5:F29)</f>
-        <v>0</v>
-      </c>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="12"/>
     </row>
     <row r="35" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="13"/>
@@ -1838,6 +1830,62 @@
     </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="D15:D19"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="F10:F14"/>
+    <mergeCell ref="F15:F19"/>
+    <mergeCell ref="F20:F24"/>
+    <mergeCell ref="C5:C24"/>
+    <mergeCell ref="B5:B29"/>
+    <mergeCell ref="F25:F29"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="E10:E14"/>
+    <mergeCell ref="E15:E19"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="C25:D29"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="D10:D14"/>
+    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="H10:H14"/>
+    <mergeCell ref="H15:H19"/>
+    <mergeCell ref="H20:H24"/>
+    <mergeCell ref="H25:H29"/>
+    <mergeCell ref="G5:G9"/>
+    <mergeCell ref="G10:G14"/>
+    <mergeCell ref="G15:G19"/>
+    <mergeCell ref="G20:G24"/>
+    <mergeCell ref="G25:G29"/>
+    <mergeCell ref="N5:N9"/>
+    <mergeCell ref="O7:O9"/>
+    <mergeCell ref="P7:P9"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K10:K14"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="K5:K9"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="N10:N14"/>
+    <mergeCell ref="N15:N19"/>
+    <mergeCell ref="N20:N24"/>
+    <mergeCell ref="N25:N29"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="L18:L19"/>
     <mergeCell ref="B31:E31"/>
     <mergeCell ref="O17:O19"/>
     <mergeCell ref="P17:P19"/>
@@ -1854,62 +1902,6 @@
     <mergeCell ref="K20:K24"/>
     <mergeCell ref="K25:K29"/>
     <mergeCell ref="I18:I19"/>
-    <mergeCell ref="N10:N14"/>
-    <mergeCell ref="N15:N19"/>
-    <mergeCell ref="N20:N24"/>
-    <mergeCell ref="N25:N29"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="N5:N9"/>
-    <mergeCell ref="O7:O9"/>
-    <mergeCell ref="P7:P9"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K10:K14"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="K5:K9"/>
-    <mergeCell ref="G5:G9"/>
-    <mergeCell ref="G10:G14"/>
-    <mergeCell ref="G15:G19"/>
-    <mergeCell ref="G20:G24"/>
-    <mergeCell ref="G25:G29"/>
-    <mergeCell ref="H5:H9"/>
-    <mergeCell ref="H10:H14"/>
-    <mergeCell ref="H15:H19"/>
-    <mergeCell ref="H20:H24"/>
-    <mergeCell ref="H25:H29"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F5:F9"/>
-    <mergeCell ref="F10:F14"/>
-    <mergeCell ref="F15:F19"/>
-    <mergeCell ref="F20:F24"/>
-    <mergeCell ref="C5:C24"/>
-    <mergeCell ref="B5:B29"/>
-    <mergeCell ref="F25:F29"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="E10:E14"/>
-    <mergeCell ref="E15:E19"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="C25:D29"/>
-    <mergeCell ref="D5:D9"/>
-    <mergeCell ref="D10:D14"/>
-    <mergeCell ref="D15:D19"/>
-    <mergeCell ref="D20:D24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1940,41 +1932,41 @@
       <c r="D1" s="14"/>
     </row>
     <row r="2" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="76" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="76"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+    </row>
+    <row r="3" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-    </row>
-    <row r="3" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="B3" s="78"/>
+      <c r="C3" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="16" t="s">
+      <c r="D3" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="E3" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="80"/>
       <c r="C4" s="23"/>
       <c r="D4" s="24"/>
       <c r="E4" s="25"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
-      <c r="B5" s="67"/>
+      <c r="A5" s="79"/>
+      <c r="B5" s="80"/>
       <c r="C5" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" s="19">
         <v>8</v>
@@ -1984,8 +1976,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="66"/>
-      <c r="B6" s="67"/>
+      <c r="A6" s="79"/>
+      <c r="B6" s="80"/>
       <c r="C6" s="21">
         <v>5</v>
       </c>
@@ -1997,191 +1989,197 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="66"/>
-      <c r="B7" s="67"/>
+      <c r="A7" s="79"/>
+      <c r="B7" s="80"/>
       <c r="C7" s="26"/>
       <c r="D7" s="24"/>
       <c r="E7" s="25"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="66"/>
-      <c r="B8" s="67"/>
+      <c r="A8" s="79"/>
+      <c r="B8" s="80"/>
       <c r="C8" s="26"/>
       <c r="D8" s="24"/>
       <c r="E8" s="25"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="66"/>
-      <c r="B9" s="67"/>
+      <c r="A9" s="79"/>
+      <c r="B9" s="80"/>
       <c r="C9" s="26"/>
       <c r="D9" s="24"/>
       <c r="E9" s="25"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="66"/>
-      <c r="B10" s="67"/>
+      <c r="A10" s="79"/>
+      <c r="B10" s="80"/>
       <c r="C10" s="26"/>
       <c r="D10" s="24"/>
       <c r="E10" s="25"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="66"/>
-      <c r="B11" s="67"/>
+      <c r="A11" s="79"/>
+      <c r="B11" s="80"/>
       <c r="C11" s="26"/>
       <c r="D11" s="24"/>
       <c r="E11" s="25"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="66"/>
-      <c r="B12" s="67"/>
+      <c r="A12" s="79"/>
+      <c r="B12" s="80"/>
       <c r="C12" s="26"/>
       <c r="D12" s="24"/>
       <c r="E12" s="25"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="66"/>
-      <c r="B13" s="67"/>
+      <c r="A13" s="79"/>
+      <c r="B13" s="80"/>
       <c r="C13" s="26"/>
       <c r="D13" s="24"/>
       <c r="E13" s="25"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="66"/>
-      <c r="B14" s="67"/>
+      <c r="A14" s="79"/>
+      <c r="B14" s="80"/>
       <c r="C14" s="26"/>
       <c r="D14" s="24"/>
       <c r="E14" s="25"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="66"/>
-      <c r="B15" s="67"/>
+      <c r="A15" s="79"/>
+      <c r="B15" s="80"/>
       <c r="C15" s="26"/>
       <c r="D15" s="24"/>
       <c r="E15" s="25"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="66"/>
-      <c r="B16" s="67"/>
+      <c r="A16" s="79"/>
+      <c r="B16" s="80"/>
       <c r="C16" s="26"/>
       <c r="D16" s="24"/>
       <c r="E16" s="25"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="68"/>
-      <c r="B17" s="69"/>
+      <c r="A17" s="81"/>
+      <c r="B17" s="82"/>
       <c r="C17" s="27"/>
       <c r="D17" s="28"/>
       <c r="E17" s="29"/>
     </row>
     <row r="18" spans="1:5" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="75" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="76"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="79"/>
+      <c r="A18" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="64"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="67"/>
     </row>
     <row r="19" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="83" t="s">
+      <c r="A19" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="71"/>
+      <c r="C19" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="64"/>
+      <c r="E19" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="83"/>
-      <c r="C19" s="75" t="s">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="71"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="18"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="71"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="18"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="71"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="18"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="71"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="18"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="71"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="18"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="71"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="18"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="71"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="22"/>
+    </row>
+    <row r="27" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="76"/>
-      <c r="E19" s="17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="83"/>
-      <c r="B20" s="83"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="18"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="83"/>
-      <c r="B21" s="83"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="18"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="83"/>
-      <c r="B22" s="83"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="18"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="83"/>
-      <c r="B23" s="83"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="18"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="83"/>
-      <c r="B24" s="83"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="18"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="83"/>
-      <c r="B25" s="83"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="18"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="83"/>
-      <c r="B26" s="83"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="22"/>
-    </row>
-    <row r="27" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="75" t="s">
+      <c r="B27" s="64"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="70"/>
+    </row>
+    <row r="28" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="76"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="82"/>
-    </row>
-    <row r="28" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="75" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="76"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="82"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="70"/>
     </row>
     <row r="29" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="75" t="s">
+      <c r="A29" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="64"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="67"/>
+    </row>
+    <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="76"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="79"/>
-    </row>
-    <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="71" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="72"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="74"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B17"/>
+    <mergeCell ref="C2:E2"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="A18:B18"/>
@@ -2198,12 +2196,6 @@
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B17"/>
-    <mergeCell ref="C2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
